--- a/Tang_per_piece_metrics.xlsx
+++ b/Tang_per_piece_metrics.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661</v>
+        <v>3092</v>
       </c>
       <c r="C2" t="n">
-        <v>216</v>
+        <v>3071</v>
       </c>
       <c r="D2" t="n">
-        <v>1.362069964408875</v>
+        <v>1.546168446540833</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>451</v>
+        <v>1791</v>
       </c>
       <c r="C3" t="n">
-        <v>420</v>
+        <v>960</v>
       </c>
       <c r="D3" t="n">
-        <v>1.362069964408875</v>
+        <v>1.546168446540833</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89</v>
+        <v>3398</v>
       </c>
       <c r="C4" t="n">
-        <v>252</v>
+        <v>1994</v>
       </c>
       <c r="D4" t="n">
-        <v>1.362069964408875</v>
+        <v>1.546168446540833</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1772</v>
+        <v>807</v>
       </c>
       <c r="C5" t="n">
-        <v>968</v>
+        <v>1582</v>
       </c>
       <c r="D5" t="n">
-        <v>1.362069964408875</v>
+        <v>1.546168446540833</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2605</v>
+        <v>1084</v>
       </c>
       <c r="C6" t="n">
-        <v>1320</v>
+        <v>957</v>
       </c>
       <c r="D6" t="n">
-        <v>1.362069964408875</v>
+        <v>1.546168446540833</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5754</v>
+        <v>1891</v>
       </c>
       <c r="C7" t="n">
-        <v>1266</v>
+        <v>2785</v>
       </c>
       <c r="D7" t="n">
-        <v>1.362069964408875</v>
+        <v>1.546168446540833</v>
       </c>
     </row>
   </sheetData>
